--- a/Output/Nuevo/cuadro7.xlsx
+++ b/Output/Nuevo/cuadro7.xlsx
@@ -365,142 +365,142 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Poder_1991</t>
+          <t>Tamaño_1991</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Poder_1992</t>
+          <t>Tamaño_1992</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Poder_1993</t>
+          <t>Tamaño_1993</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Poder_1994</t>
+          <t>Tamaño_1994</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Poder_1995</t>
+          <t>Tamaño_1995</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Poder_1996</t>
+          <t>Tamaño_1996</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Poder_1997</t>
+          <t>Tamaño_1997</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Poder_1998</t>
+          <t>Tamaño_1998</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Poder_1999</t>
+          <t>Tamaño_1999</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Poder_2000</t>
+          <t>Tamaño_2000</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Poder_2001</t>
+          <t>Tamaño_2001</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Poder_2002</t>
+          <t>Tamaño_2002</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Poder_2003</t>
+          <t>Tamaño_2003</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Poder_2004</t>
+          <t>Tamaño_2004</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Poder_2005</t>
+          <t>Tamaño_2005</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Poder_2006</t>
+          <t>Tamaño_2006</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Poder_2007</t>
+          <t>Tamaño_2007</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Poder_2008</t>
+          <t>Tamaño_2008</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>Poder_2009</t>
+          <t>Tamaño_2009</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Poder_2010</t>
+          <t>Tamaño_2010</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>Poder_2011</t>
+          <t>Tamaño_2011</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Poder_2012</t>
+          <t>Tamaño_2012</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>Poder_2013</t>
+          <t>Tamaño_2013</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>Poder_2014</t>
+          <t>Tamaño_2014</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>Poder_2015</t>
+          <t>Tamaño_2015</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>Poder_2016</t>
+          <t>Tamaño_2016</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>Poder_2017</t>
+          <t>Tamaño_2017</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>Poder_2018</t>
+          <t>Tamaño_2018</t>
         </is>
       </c>
     </row>

--- a/Output/Nuevo/cuadro7.xlsx
+++ b/Output/Nuevo/cuadro7.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC12"/>
+  <dimension ref="A1:AD12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -503,6 +503,11 @@
           <t>Tamaño_2018</t>
         </is>
       </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Tamaño_2019</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -573,6 +578,9 @@
       <c r="AC2">
         <v>76.5</v>
       </c>
+      <c r="AD2">
+        <v>99.3</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -661,6 +669,9 @@
       <c r="AC3">
         <v>52.2</v>
       </c>
+      <c r="AD3">
+        <v>50.7</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -749,6 +760,9 @@
       <c r="AC4">
         <v>120.1</v>
       </c>
+      <c r="AD4">
+        <v>120</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -837,6 +851,9 @@
       <c r="AC5">
         <v>133</v>
       </c>
+      <c r="AD5">
+        <v>124.7</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -925,6 +942,9 @@
       <c r="AC6">
         <v>88.09999999999999</v>
       </c>
+      <c r="AD6">
+        <v>94.8</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1013,6 +1033,9 @@
       <c r="AC7">
         <v>265.9</v>
       </c>
+      <c r="AD7">
+        <v>277</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1101,6 +1124,9 @@
       <c r="AC8">
         <v>89.90000000000001</v>
       </c>
+      <c r="AD8">
+        <v>90.2</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1189,6 +1215,9 @@
       <c r="AC9">
         <v>204.9</v>
       </c>
+      <c r="AD9">
+        <v>204.6</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1274,6 +1303,9 @@
       <c r="AC10">
         <v>98.90000000000001</v>
       </c>
+      <c r="AD10">
+        <v>102.1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1362,6 +1394,9 @@
       <c r="AC11">
         <v>98.5</v>
       </c>
+      <c r="AD11">
+        <v>100</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1449,6 +1484,9 @@
       </c>
       <c r="AC12">
         <v>81.7</v>
+      </c>
+      <c r="AD12">
+        <v>77.59999999999999</v>
       </c>
     </row>
   </sheetData>
